--- a/views/modules/informes/ESF.xlsx
+++ b/views/modules/informes/ESF.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\wis\views\modules\informes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F455EBC-7089-4536-8716-F06839D2E516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030EFA9F-262E-4A42-A483-AAB8F9DD5305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Balance" sheetId="1" r:id="rId1"/>
+    <sheet name="ESF" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ActCorriente">#REF!</definedName>
     <definedName name="ActTotalBruto">#REF!</definedName>
-    <definedName name="Año">Balance!#REF!</definedName>
-    <definedName name="AÑOINICIAL">Balance!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Balance!$B$2:$J$54</definedName>
-    <definedName name="CentroCos.">Balance!#REF!</definedName>
+    <definedName name="Año">ESF!#REF!</definedName>
+    <definedName name="AÑOINICIAL">ESF!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESF!$B$2:$J$54</definedName>
+    <definedName name="CentroCos.">ESF!#REF!</definedName>
     <definedName name="CNT">#REF!</definedName>
     <definedName name="ConcentracEndeudam">#REF!</definedName>
     <definedName name="CorrecciónMonetaria">#REF!</definedName>
@@ -34,32 +34,32 @@
     <definedName name="MargenBruto">#REF!</definedName>
     <definedName name="MargenNeto">#REF!</definedName>
     <definedName name="MargenOperacional">#REF!</definedName>
-    <definedName name="Mes">Balance!#REF!</definedName>
-    <definedName name="MESINICIAL">Balance!#REF!</definedName>
+    <definedName name="Mes">ESF!#REF!</definedName>
+    <definedName name="MESINICIAL">ESF!#REF!</definedName>
     <definedName name="MNVentasNetas">#REF!</definedName>
     <definedName name="MOVtasNetas">#REF!</definedName>
     <definedName name="NivEndeudamiento">#REF!</definedName>
-    <definedName name="No.Empresa">Balance!#REF!</definedName>
-    <definedName name="NombMes">Balance!#REF!</definedName>
+    <definedName name="No.Empresa">ESF!#REF!</definedName>
+    <definedName name="NombMes">ESF!#REF!</definedName>
     <definedName name="PasCorriente">#REF!</definedName>
     <definedName name="PasivoCorriente">#REF!</definedName>
     <definedName name="PruebaAcida">#REF!</definedName>
     <definedName name="RazonCorriente">#REF!</definedName>
     <definedName name="RendimActivototal">#REF!</definedName>
     <definedName name="TotalAct.">#REF!</definedName>
-    <definedName name="TotalActCorriente">Balance!$E$29</definedName>
-    <definedName name="TotalActivo">Balance!$E$51</definedName>
-    <definedName name="TotalActNoCorriente">Balance!$E$37</definedName>
-    <definedName name="TotalOtrosActivos">Balance!$E$45</definedName>
+    <definedName name="TotalActCorriente">ESF!$E$29</definedName>
+    <definedName name="TotalActivo">ESF!$E$51</definedName>
+    <definedName name="TotalActNoCorriente">ESF!$E$37</definedName>
+    <definedName name="TotalOtrosActivos">ESF!$E$45</definedName>
     <definedName name="TotalPas3ros">#REF!</definedName>
-    <definedName name="TotalPasCorriente">Balance!$J$30</definedName>
-    <definedName name="TotalPasivo">Balance!$J$38</definedName>
-    <definedName name="TotalPasivoPatrimonio">Balance!$J$51</definedName>
-    <definedName name="TotalPasNoCorriente">Balance!$J$40</definedName>
+    <definedName name="TotalPasCorriente">ESF!$J$30</definedName>
+    <definedName name="TotalPasivo">ESF!$J$38</definedName>
+    <definedName name="TotalPasivoPatrimonio">ESF!$J$51</definedName>
+    <definedName name="TotalPasNoCorriente">ESF!$J$40</definedName>
     <definedName name="TotalPasTerc">#REF!</definedName>
-    <definedName name="TotalPatrimonio">Balance!$J$49</definedName>
-    <definedName name="Unid.MOneda">Balance!#REF!</definedName>
-    <definedName name="UNIDAD">Balance!#REF!</definedName>
+    <definedName name="TotalPatrimonio">ESF!$J$49</definedName>
+    <definedName name="Unid.MOneda">ESF!#REF!</definedName>
+    <definedName name="UNIDAD">ESF!#REF!</definedName>
     <definedName name="UtiildadBruta">#REF!</definedName>
     <definedName name="Utild.Operac.">#REF!</definedName>
     <definedName name="UtildNeta">#REF!</definedName>
@@ -70,6 +70,15 @@
     <definedName name="VentasNetas">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -664,6 +673,14 @@
     <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -718,14 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1150,39 +1159,39 @@
       <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="30"/>
@@ -1207,30 +1216,30 @@
       <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="74"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
@@ -1859,10 +1868,10 @@
         <f>IF(J53=0,"BALANCE CUADRADO!!!","BALANCE DESCUADRADO!!!")</f>
         <v>BALANCE CUADRADO!!!</v>
       </c>
-      <c r="H53" s="75" t="s">
+      <c r="H53" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="76"/>
+      <c r="I53" s="62"/>
       <c r="J53" s="60">
         <f>TotalActivo-TotalPasivoPatrimonio</f>
         <v>0</v>
